--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asraf\source\repos\Litedb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DBE95-40F0-4519-B7B3-0342BD59959D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE59E8-D92A-4A06-B466-B2DC7CE29B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -48,13 +48,172 @@
     <t>user</t>
   </si>
   <si>
+    <t>jack daniels</t>
+  </si>
+  <si>
+    <t>jackd@mailnator.com</t>
+  </si>
+  <si>
+    <t>kvon eric</t>
+  </si>
+  <si>
+    <t>eric@mail.com</t>
+  </si>
+  <si>
+    <t>nur khamsiah</t>
+  </si>
+  <si>
+    <t>siti sadisah</t>
+  </si>
+  <si>
+    <t>ahmad sabu</t>
+  </si>
+  <si>
+    <t>amin bin saimin</t>
+  </si>
+  <si>
+    <t>nik tisah</t>
+  </si>
+  <si>
+    <t>asyraf arifin</t>
+  </si>
+  <si>
+    <t>pak wahid</t>
+  </si>
+  <si>
+    <t>ismail sani</t>
+  </si>
+  <si>
+    <t>lima@mail.com</t>
+  </si>
+  <si>
+    <t>enam@mail.com</t>
+  </si>
+  <si>
+    <t>tujuh@mail.com</t>
+  </si>
+  <si>
+    <t>lapan@mail.com</t>
+  </si>
+  <si>
+    <t>sembilan@mail.com</t>
+  </si>
+  <si>
+    <t>spoloh@mail.com</t>
+  </si>
+  <si>
+    <t>sblas@mail.com</t>
+  </si>
+  <si>
+    <t>doblas@mail.com</t>
+  </si>
+  <si>
+    <t>Ahmad Albab</t>
+  </si>
+  <si>
+    <t>ahmad@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajanikanh</t>
+  </si>
+  <si>
+    <t>Rajukhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Amin Farkhan</t>
+  </si>
+  <si>
+    <t>sudaamin@gmail.com</t>
+  </si>
+  <si>
+    <t>Hafiz Harun</t>
+  </si>
+  <si>
+    <t>hafiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Syamsul Hisyam</t>
+  </si>
+  <si>
+    <t>boyagronomi@uitm.my</t>
+  </si>
+  <si>
+    <t>Azwan ABu</t>
+  </si>
+  <si>
+    <t>cloud92@mail.com</t>
+  </si>
+  <si>
+    <t>Mahmud Abbad</t>
+  </si>
+  <si>
+    <t>MahmudAbbas@mail.com</t>
+  </si>
+  <si>
+    <t>muazam</t>
+  </si>
+  <si>
+    <t>muazam@mail.com</t>
+  </si>
+  <si>
+    <t>Fadzilah Kahmsah</t>
+  </si>
+  <si>
+    <t>Fadzilah@motivate.com</t>
+  </si>
+  <si>
+    <t>ahmad dermawan</t>
+  </si>
+  <si>
+    <t>dermawan@mail.com</t>
+  </si>
+  <si>
+    <t>Ruhaidah Rahmad</t>
+  </si>
+  <si>
+    <t>ida2372@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hafiz Harun2</t>
+  </si>
+  <si>
+    <t>Aqilah Athirah</t>
+  </si>
+  <si>
+    <t>Aqilahrose@mail.com</t>
+  </si>
+  <si>
+    <t>ajsh</t>
+  </si>
+  <si>
+    <t>kajsdl</t>
+  </si>
+  <si>
+    <t>kajsdk</t>
+  </si>
+  <si>
+    <t>Badrul Amin</t>
+  </si>
+  <si>
+    <t>badrul@mail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>alksdjas</t>
+  </si>
+  <si>
     <t>nur munawir</t>
   </si>
   <si>
     <t>munawir@mail.com</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Aiman Azlan</t>
+  </si>
+  <si>
+    <t>aiman@mail.com</t>
   </si>
   <si>
     <t>siti sakinah</t>
@@ -67,6 +226,12 @@
   </si>
   <si>
     <t>syarifah@gmail.com</t>
+  </si>
+  <si>
+    <t>amran ajib</t>
+  </si>
+  <si>
+    <t>amran@mail.com</t>
   </si>
 </sst>
 </file>
@@ -111,9 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,82 +576,489 @@
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9123183</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8123332</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1849422</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1293138</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12831092</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19923813</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>191238123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17923123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17923123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>88131239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>193921318</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19312931</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1293138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1">
+        <v>102381231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19283813</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D18" s="1">
         <v>12383123</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>128312321</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18828131</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12381833</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1929931</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>128312321</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D23" s="1">
+        <v>192031238</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D24" s="1">
+        <v>8123812</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>18828131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>12381833</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>12383123</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1D27F882-F02B-4D9C-8F3B-B6745686D0F2}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{EBDDC1FA-F9C1-45E4-B19B-016E028FEB02}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E59AF822-8247-4069-B949-BAF3AB079028}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{5283442D-45FE-4981-B82D-E31D060CF091}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{A42ECFA7-8A57-4ED5-A306-B05634C5CF0F}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{1878E36F-FEF6-4813-AE1E-99944B27D6B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
